--- a/tools/0_LJW_tools/连接类型.xlsx
+++ b/tools/0_LJW_tools/连接类型.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
